--- a/natmiOut/OldD0/LR-pairs_lrc2p/Trf-Tfrc.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Trf-Tfrc.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.95416869844889</v>
+        <v>12.72626133333333</v>
       </c>
       <c r="H2">
-        <v>2.95416869844889</v>
+        <v>38.178784</v>
       </c>
       <c r="I2">
-        <v>0.02212754158162965</v>
+        <v>0.08664518826379554</v>
       </c>
       <c r="J2">
-        <v>0.02212754158162965</v>
+        <v>0.08664518826379553</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.1250855155432</v>
+        <v>43.027021</v>
       </c>
       <c r="N2">
-        <v>19.1250855155432</v>
+        <v>129.081063</v>
       </c>
       <c r="O2">
-        <v>0.6120130390451072</v>
+        <v>0.7775798784610731</v>
       </c>
       <c r="P2">
-        <v>0.6120130390451072</v>
+        <v>0.7775798784610732</v>
       </c>
       <c r="Q2">
-        <v>56.49872898517598</v>
+        <v>547.5731136408214</v>
       </c>
       <c r="R2">
-        <v>56.49872898517598</v>
+        <v>4928.158022767392</v>
       </c>
       <c r="S2">
-        <v>0.01354234396997014</v>
+        <v>0.06737355495939894</v>
       </c>
       <c r="T2">
-        <v>0.01354234396997014</v>
+        <v>0.06737355495939894</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.95416869844889</v>
+        <v>12.72626133333333</v>
       </c>
       <c r="H3">
-        <v>2.95416869844889</v>
+        <v>38.178784</v>
       </c>
       <c r="I3">
-        <v>0.02212754158162965</v>
+        <v>0.08664518826379554</v>
       </c>
       <c r="J3">
-        <v>0.02212754158162965</v>
+        <v>0.08664518826379553</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.82990503380728</v>
+        <v>2.947472666666667</v>
       </c>
       <c r="N3">
-        <v>2.82990503380728</v>
+        <v>8.842418</v>
       </c>
       <c r="O3">
-        <v>0.09055848553157431</v>
+        <v>0.05326642153343597</v>
       </c>
       <c r="P3">
-        <v>0.09055848553157431</v>
+        <v>0.05326642153343598</v>
       </c>
       <c r="Q3">
-        <v>8.360016870456414</v>
+        <v>37.51030742885689</v>
       </c>
       <c r="R3">
-        <v>8.360016870456414</v>
+        <v>337.592766859712</v>
       </c>
       <c r="S3">
-        <v>0.002003836654169318</v>
+        <v>0.004615279121903252</v>
       </c>
       <c r="T3">
-        <v>0.002003836654169318</v>
+        <v>0.004615279121903252</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.95416869844889</v>
+        <v>12.72626133333333</v>
       </c>
       <c r="H4">
-        <v>2.95416869844889</v>
+        <v>38.178784</v>
       </c>
       <c r="I4">
-        <v>0.02212754158162965</v>
+        <v>0.08664518826379554</v>
       </c>
       <c r="J4">
-        <v>0.02212754158162965</v>
+        <v>0.08664518826379553</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.29448339222289</v>
+        <v>9.360041333333333</v>
       </c>
       <c r="N4">
-        <v>9.29448339222289</v>
+        <v>28.080124</v>
       </c>
       <c r="O4">
-        <v>0.2974284754233186</v>
+        <v>0.1691537000054908</v>
       </c>
       <c r="P4">
-        <v>0.2974284754233186</v>
+        <v>0.1691537000054908</v>
       </c>
       <c r="Q4">
-        <v>27.45747190555792</v>
+        <v>119.1183320988018</v>
       </c>
       <c r="R4">
-        <v>27.45747190555792</v>
+        <v>1072.064988889216</v>
       </c>
       <c r="S4">
-        <v>0.006581360957490195</v>
+        <v>0.01465635418249335</v>
       </c>
       <c r="T4">
-        <v>0.006581360957490195</v>
+        <v>0.01465635418249334</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>129.01315128502</v>
+        <v>132.5150096666667</v>
       </c>
       <c r="H5">
-        <v>129.01315128502</v>
+        <v>397.545029</v>
       </c>
       <c r="I5">
-        <v>0.9663442277806489</v>
+        <v>0.9022121783931373</v>
       </c>
       <c r="J5">
-        <v>0.9663442277806489</v>
+        <v>0.9022121783931372</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.1250855155432</v>
+        <v>43.027021</v>
       </c>
       <c r="N5">
-        <v>19.1250855155432</v>
+        <v>129.081063</v>
       </c>
       <c r="O5">
-        <v>0.6120130390451072</v>
+        <v>0.7775798784610731</v>
       </c>
       <c r="P5">
-        <v>0.6120130390451072</v>
+        <v>0.7775798784610732</v>
       </c>
       <c r="Q5">
-        <v>2467.38755095572</v>
+        <v>5701.726103742869</v>
       </c>
       <c r="R5">
-        <v>2467.38755095572</v>
+        <v>51315.53493368583</v>
       </c>
       <c r="S5">
-        <v>0.5914152676077322</v>
+        <v>0.7015420360210357</v>
       </c>
       <c r="T5">
-        <v>0.5914152676077322</v>
+        <v>0.7015420360210357</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>129.01315128502</v>
+        <v>132.5150096666667</v>
       </c>
       <c r="H6">
-        <v>129.01315128502</v>
+        <v>397.545029</v>
       </c>
       <c r="I6">
-        <v>0.9663442277806489</v>
+        <v>0.9022121783931373</v>
       </c>
       <c r="J6">
-        <v>0.9663442277806489</v>
+        <v>0.9022121783931372</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.82990503380728</v>
+        <v>2.947472666666667</v>
       </c>
       <c r="N6">
-        <v>2.82990503380728</v>
+        <v>8.842418</v>
       </c>
       <c r="O6">
-        <v>0.09055848553157431</v>
+        <v>0.05326642153343597</v>
       </c>
       <c r="P6">
-        <v>0.09055848553157431</v>
+        <v>0.05326642153343598</v>
       </c>
       <c r="Q6">
-        <v>365.0949662488183</v>
+        <v>390.5843689155691</v>
       </c>
       <c r="R6">
-        <v>365.0949662488183</v>
+        <v>3515.259320240122</v>
       </c>
       <c r="S6">
-        <v>0.08751066976999423</v>
+        <v>0.04805761420688838</v>
       </c>
       <c r="T6">
-        <v>0.08751066976999423</v>
+        <v>0.04805761420688838</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>129.01315128502</v>
+        <v>132.5150096666667</v>
       </c>
       <c r="H7">
-        <v>129.01315128502</v>
+        <v>397.545029</v>
       </c>
       <c r="I7">
-        <v>0.9663442277806489</v>
+        <v>0.9022121783931373</v>
       </c>
       <c r="J7">
-        <v>0.9663442277806489</v>
+        <v>0.9022121783931372</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.29448339222289</v>
+        <v>9.360041333333333</v>
       </c>
       <c r="N7">
-        <v>9.29448339222289</v>
+        <v>28.080124</v>
       </c>
       <c r="O7">
-        <v>0.2974284754233186</v>
+        <v>0.1691537000054908</v>
       </c>
       <c r="P7">
-        <v>0.2974284754233186</v>
+        <v>0.1691537000054908</v>
       </c>
       <c r="Q7">
-        <v>1199.110591996958</v>
+        <v>1240.345967767066</v>
       </c>
       <c r="R7">
-        <v>1199.110591996958</v>
+        <v>11163.1137099036</v>
       </c>
       <c r="S7">
-        <v>0.2874182904029225</v>
+        <v>0.1526125281652131</v>
       </c>
       <c r="T7">
-        <v>0.2874182904029225</v>
+        <v>0.1526125281652131</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.53909271722847</v>
+        <v>1.636606333333333</v>
       </c>
       <c r="H8">
-        <v>1.53909271722847</v>
+        <v>4.909819</v>
       </c>
       <c r="I8">
-        <v>0.0115282306377215</v>
+        <v>0.0111426333430672</v>
       </c>
       <c r="J8">
-        <v>0.0115282306377215</v>
+        <v>0.01114263334306719</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.1250855155432</v>
+        <v>43.027021</v>
       </c>
       <c r="N8">
-        <v>19.1250855155432</v>
+        <v>129.081063</v>
       </c>
       <c r="O8">
-        <v>0.6120130390451072</v>
+        <v>0.7775798784610731</v>
       </c>
       <c r="P8">
-        <v>0.6120130390451072</v>
+        <v>0.7775798784610732</v>
       </c>
       <c r="Q8">
-        <v>29.43527983334424</v>
+        <v>70.41829507306632</v>
       </c>
       <c r="R8">
-        <v>29.43527983334424</v>
+        <v>633.764655657597</v>
       </c>
       <c r="S8">
-        <v>0.00705542746740485</v>
+        <v>0.00866428748063849</v>
       </c>
       <c r="T8">
-        <v>0.00705542746740485</v>
+        <v>0.00866428748063849</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.53909271722847</v>
+        <v>1.636606333333333</v>
       </c>
       <c r="H9">
-        <v>1.53909271722847</v>
+        <v>4.909819</v>
       </c>
       <c r="I9">
-        <v>0.0115282306377215</v>
+        <v>0.0111426333430672</v>
       </c>
       <c r="J9">
-        <v>0.0115282306377215</v>
+        <v>0.01114263334306719</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.82990503380728</v>
+        <v>2.947472666666667</v>
       </c>
       <c r="N9">
-        <v>2.82990503380728</v>
+        <v>8.842418</v>
       </c>
       <c r="O9">
-        <v>0.09055848553157431</v>
+        <v>0.05326642153343597</v>
       </c>
       <c r="P9">
-        <v>0.09055848553157431</v>
+        <v>0.05326642153343598</v>
       </c>
       <c r="Q9">
-        <v>4.355486227980973</v>
+        <v>4.823852433593555</v>
       </c>
       <c r="R9">
-        <v>4.355486227980973</v>
+        <v>43.414671902342</v>
       </c>
       <c r="S9">
-        <v>0.001043979107410754</v>
+        <v>0.000593528204644336</v>
       </c>
       <c r="T9">
-        <v>0.001043979107410754</v>
+        <v>0.000593528204644336</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.53909271722847</v>
+        <v>1.636606333333333</v>
       </c>
       <c r="H10">
-        <v>1.53909271722847</v>
+        <v>4.909819</v>
       </c>
       <c r="I10">
-        <v>0.0115282306377215</v>
+        <v>0.0111426333430672</v>
       </c>
       <c r="J10">
-        <v>0.0115282306377215</v>
+        <v>0.01114263334306719</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.29448339222289</v>
+        <v>9.360041333333333</v>
       </c>
       <c r="N10">
-        <v>9.29448339222289</v>
+        <v>28.080124</v>
       </c>
       <c r="O10">
-        <v>0.2974284754233186</v>
+        <v>0.1691537000054908</v>
       </c>
       <c r="P10">
-        <v>0.2974284754233186</v>
+        <v>0.1691537000054908</v>
       </c>
       <c r="Q10">
-        <v>14.30507169937122</v>
+        <v>15.31870292639511</v>
       </c>
       <c r="R10">
-        <v>14.30507169937122</v>
+        <v>137.868326337556</v>
       </c>
       <c r="S10">
-        <v>0.003428824062905898</v>
+        <v>0.001884817657784368</v>
       </c>
       <c r="T10">
-        <v>0.003428824062905898</v>
+        <v>0.001884817657784368</v>
       </c>
     </row>
   </sheetData>
